--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="42360" yWindow="4840" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="23200" yWindow="5060" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="benchmark" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t xml:space="preserve">Imputation: </t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>v10</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>xgboost (centre, scale)</t>
+  </si>
+  <si>
+    <t>xgboost (no tsne)</t>
   </si>
 </sst>
 </file>
@@ -362,7 +371,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -380,8 +389,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -413,6 +430,50 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -422,33 +483,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -457,6 +493,10 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -465,6 +505,10 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -794,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -807,95 +851,107 @@
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" thickBot="1">
+    <row r="1" spans="1:11" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="23">
         <v>-999</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="19" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="30"/>
+      <c r="B4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="19" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="30"/>
+      <c r="B5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="19" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="30"/>
+      <c r="B6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="19" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="30"/>
+      <c r="B7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="19" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="30"/>
+      <c r="B8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="23" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" thickBot="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="11" spans="1:5" ht="18">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="11" spans="1:11" ht="18">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" thickBot="1">
+    <row r="12" spans="1:11" ht="16" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -908,8 +964,20 @@
       <c r="E13" s="6">
         <v>1500</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1500</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -922,8 +990,20 @@
       <c r="E14" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -936,8 +1016,20 @@
       <c r="E15" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -950,8 +1042,20 @@
       <c r="E16" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -964,8 +1068,20 @@
       <c r="E17" s="9">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -978,8 +1094,20 @@
       <c r="E18" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="16">
+        <v>11</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -992,8 +1120,20 @@
       <c r="E19" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -1006,8 +1146,20 @@
       <c r="E20" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1">
+      <c r="G20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="20">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16" thickBot="1">
       <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
@@ -1020,16 +1172,34 @@
       <c r="E21" s="11">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="19" thickBot="1">
+      <c r="G21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1042,8 +1212,18 @@
       <c r="E24" s="6">
         <v>0.46531899999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0.45974700000000002</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
@@ -1056,8 +1236,18 @@
       <c r="E25" s="9">
         <v>0.45734900000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="20">
+        <v>0.45929799999999998</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
@@ -1070,8 +1260,18 @@
       <c r="E26" s="9">
         <v>0.45896900000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0.45583400000000002</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1084,8 +1284,18 @@
       <c r="E27" s="9">
         <v>0.45649899999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0.44972099999999998</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1098,67 +1308,144 @@
       <c r="E28" s="9">
         <v>0.46141399999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="16" thickBot="1">
-      <c r="A29" s="16" t="s">
+      <c r="G28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="20">
+        <v>0.45556000000000002</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" ht="16" thickBot="1">
+      <c r="A29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="15">
         <f>AVERAGE(B24:B28)</f>
         <v>0.45847800000000005</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="15">
         <f>AVERAGE(E24:E28)</f>
         <v>0.45990999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="6" customHeight="1" thickBot="1">
+      <c r="G29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="20">
+        <v>0.46712599999999999</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11" ht="16" thickBot="1">
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="20">
+        <v>0.44839299999999999</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="6">
         <v>0.45855200000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="20">
+        <v>0.45556099999999999</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="9">
         <v>0.45912599999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="G32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="20">
+        <v>0.45466400000000001</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="9">
         <v>0.45532600000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="G33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="20">
+        <v>0.459957</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" ht="16" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="9">
         <v>0.44963900000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="G34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="15">
+        <f>AVERAGE(H24:H33)</f>
+        <v>0.45658609999999999</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="15" t="e">
+        <f>AVERAGE(K24:K33)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="9">
         <v>0.45527000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="D35" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="7" t="s">
         <v>31</v>
       </c>
@@ -1166,7 +1453,7 @@
         <v>0.46673799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
         <v>32</v>
       </c>
@@ -1174,44 +1461,50 @@
         <v>0.44864100000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:11">
       <c r="A38" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="B38" s="9">
+        <v>0.456343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="B39" s="9">
+        <v>0.45429399999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="1:2" ht="16" thickBot="1">
-      <c r="A41" s="17" t="s">
+      <c r="B40" s="9">
+        <v>0.46072400000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16" thickBot="1">
+      <c r="A41" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="15">
         <f>AVERAGE(B31:B40)</f>
-        <v>0.45618457142857138</v>
+        <v>0.45646529999999991</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23200" yWindow="5060" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="31780" yWindow="4440" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -456,6 +456,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -841,7 +844,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -868,69 +871,69 @@
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="24">
         <v>-999</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="30"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="30"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="30"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="30"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="30"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="16" thickBot="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="18">
       <c r="A11" s="2" t="s">
@@ -1221,7 +1224,9 @@
       <c r="J24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="19"/>
+      <c r="K24" s="19">
+        <v>0.458343</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7" t="s">
@@ -1245,7 +1250,9 @@
       <c r="J25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20">
+        <v>0.45946900000000002</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="7" t="s">
@@ -1269,7 +1276,9 @@
       <c r="J26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="20"/>
+      <c r="K26" s="23">
+        <v>0.45481300000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="7" t="s">
@@ -1293,7 +1302,9 @@
       <c r="J27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="20"/>
+      <c r="K27" s="23">
+        <v>0.45017800000000002</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="7" t="s">
@@ -1317,7 +1328,9 @@
       <c r="J28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="20"/>
+      <c r="K28" s="23">
+        <v>0.45616400000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="16" thickBot="1">
       <c r="A29" s="13" t="s">
@@ -1343,7 +1356,9 @@
       <c r="J29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="20"/>
+      <c r="K29" s="23">
+        <v>0.46673199999999998</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="16" thickBot="1">
       <c r="B30" s="1"/>
@@ -1356,7 +1371,9 @@
       <c r="J30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="20"/>
+      <c r="K30" s="23">
+        <v>0.44954100000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="5" t="s">
@@ -1374,7 +1391,9 @@
       <c r="J31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="20"/>
+      <c r="K31" s="23">
+        <v>0.45635199999999998</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="7" t="s">
@@ -1392,7 +1411,9 @@
       <c r="J32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="20"/>
+      <c r="K32" s="23">
+        <v>0.45465100000000003</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="7" t="s">
@@ -1410,7 +1431,9 @@
       <c r="J33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="20"/>
+      <c r="K33" s="23">
+        <v>0.46035199999999998</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="16" thickBot="1">
       <c r="A34" s="7" t="s">
@@ -1429,9 +1452,9 @@
       <c r="J34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="15" t="e">
+      <c r="K34" s="15">
         <f>AVERAGE(K24:K33)</f>
-        <v>#DIV/0!</v>
+        <v>0.45665950000000005</v>
       </c>
     </row>
     <row r="35" spans="1:11">

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="40">
   <si>
     <t xml:space="preserve">Imputation: </t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>xgboost (no tsne)</t>
+  </si>
+  <si>
+    <t>xgboost (NA feats)</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -397,8 +400,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -459,6 +464,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -487,7 +501,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -500,6 +514,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -512,6 +527,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -841,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -860,87 +876,90 @@
     <col min="9" max="9" width="2.6640625" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" thickBot="1">
+    <row r="1" spans="1:14" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="27">
         <v>-999</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="30" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="31"/>
-      <c r="B4" s="26" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="34"/>
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="31"/>
-      <c r="B5" s="26" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="34"/>
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="31"/>
-      <c r="B6" s="26" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="34"/>
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="31"/>
-      <c r="B7" s="26" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="34"/>
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="31"/>
-      <c r="B8" s="26" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="34"/>
+      <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="28" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:14" ht="16" thickBot="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="11" spans="1:11" ht="18">
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="11" spans="1:14" ht="18">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
+    <row r="12" spans="1:14" ht="16" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -953,8 +972,11 @@
       <c r="J12" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -979,8 +1001,14 @@
       <c r="K13" s="19">
         <v>1500</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="24">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -1005,8 +1033,14 @@
       <c r="K14" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1031,8 +1065,14 @@
       <c r="K15" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1057,8 +1097,14 @@
       <c r="K16" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="K17" s="20">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -1109,8 +1161,14 @@
       <c r="K18" s="20">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -1135,8 +1193,14 @@
       <c r="K19" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -1161,8 +1225,14 @@
       <c r="K20" s="20">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1">
+      <c r="M20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="25">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16" thickBot="1">
       <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
@@ -1187,8 +1257,14 @@
       <c r="K21" s="21">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="19" thickBot="1">
+      <c r="M21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="26">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="19" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -1201,8 +1277,11 @@
       <c r="J23" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1227,8 +1306,14 @@
       <c r="K24" s="19">
         <v>0.458343</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="24">
+        <v>0.458785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
@@ -1253,8 +1338,14 @@
       <c r="K25" s="20">
         <v>0.45946900000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="25">
+        <v>0.46054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
@@ -1279,8 +1370,14 @@
       <c r="K26" s="23">
         <v>0.45481300000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="25">
+        <v>0.45605499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1305,8 +1402,14 @@
       <c r="K27" s="23">
         <v>0.45017800000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="25">
+        <v>0.44986399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1331,8 +1434,14 @@
       <c r="K28" s="23">
         <v>0.45616400000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1">
+      <c r="M28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="25">
+        <v>0.45548699999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="16" thickBot="1">
       <c r="A29" s="13" t="s">
         <v>30</v>
       </c>
@@ -1359,8 +1468,14 @@
       <c r="K29" s="23">
         <v>0.46673199999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="16" thickBot="1">
+      <c r="M29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="25">
+        <v>0.46688800000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="16" thickBot="1">
       <c r="B30" s="1"/>
       <c r="G30" s="7" t="s">
         <v>32</v>
@@ -1374,8 +1489,14 @@
       <c r="K30" s="23">
         <v>0.44954100000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="M30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="25">
+        <v>0.44955899999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1515,14 @@
       <c r="K31" s="23">
         <v>0.45635199999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="25">
+        <v>0.45638099999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
@@ -1414,8 +1541,14 @@
       <c r="K32" s="23">
         <v>0.45465100000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="M32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="25">
+        <v>0.45588299999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
         <v>27</v>
       </c>
@@ -1434,8 +1567,14 @@
       <c r="K33" s="23">
         <v>0.46035199999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="16" thickBot="1">
+      <c r="M33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="25">
+        <v>0.46085500000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="16" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>28</v>
       </c>
@@ -1456,8 +1595,15 @@
         <f>AVERAGE(K24:K33)</f>
         <v>0.45665950000000005</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="M34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="15">
+        <f>AVERAGE(N24:N33)</f>
+        <v>0.45702969999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
@@ -1468,7 +1614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:14">
       <c r="A36" s="7" t="s">
         <v>31</v>
       </c>
@@ -1476,7 +1622,7 @@
         <v>0.46673799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:14">
       <c r="A37" s="7" t="s">
         <v>32</v>
       </c>
@@ -1484,7 +1630,7 @@
         <v>0.44864100000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:14">
       <c r="A38" s="7" t="s">
         <v>33</v>
       </c>
@@ -1492,7 +1638,7 @@
         <v>0.456343</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:14">
       <c r="A39" s="7" t="s">
         <v>34</v>
       </c>
@@ -1500,7 +1646,7 @@
         <v>0.45429399999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:14">
       <c r="A40" s="7" t="s">
         <v>35</v>
       </c>
@@ -1508,7 +1654,7 @@
         <v>0.46072400000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16" thickBot="1">
+    <row r="41" spans="1:14" ht="16" thickBot="1">
       <c r="A41" s="14" t="s">
         <v>30</v>
       </c>
